--- a/xls/UHK-Fakulta informatiky a managementu_All.xlsx
+++ b/xls/UHK-Fakulta informatiky a managementu_All.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="644">
   <si>
     <t>YEAR</t>
   </si>
@@ -73,6 +73,18 @@
     <t>VO</t>
   </si>
   <si>
+    <t>CATEGORY_RIV_SHORT</t>
+  </si>
+  <si>
+    <t>Record_FOS_category</t>
+  </si>
+  <si>
+    <t>IsLocalJournal</t>
+  </si>
+  <si>
+    <t>IsPredatoryJournal</t>
+  </si>
+  <si>
     <t>Jimp</t>
   </si>
   <si>
@@ -595,9 +607,6 @@
     <t>THE ROLE OF MARKETING IN MULTINATIONAL SUBSIDIARIES:STANDARDIZATION VERSUS LOCALIZATION</t>
   </si>
   <si>
-    <t>Současný stav strategie léčby karcinomu rekta v České republice s ohledem na výskyt kompletní patologické odpovědi při neoadjuvantní léčbě - studie PATOD C20 2011-2012</t>
-  </si>
-  <si>
     <t>Drugs and Health Care Expenditure on the Aging Population</t>
   </si>
   <si>
@@ -901,9 +910,6 @@
     <t>0023-5954</t>
   </si>
   <si>
-    <t>0035-9351</t>
-  </si>
-  <si>
     <t>1214-813X</t>
   </si>
   <si>
@@ -1153,9 +1159,6 @@
     <t>Kybernetika</t>
   </si>
   <si>
-    <t>Rozhledy v chirurgii</t>
-  </si>
-  <si>
     <t>Sociální studia</t>
   </si>
   <si>
@@ -1651,9 +1654,6 @@
     <t>94202d836a1e2d476b6a3618878148df56a5c439</t>
   </si>
   <si>
-    <t>96338231d8233036576c29ef2bbb2013bda3c8c4</t>
-  </si>
-  <si>
     <t>969e0568bf8f3fe04ac043fb2dc4f71ca57b8aed</t>
   </si>
   <si>
@@ -1865,6 +1865,87 @@
   </si>
   <si>
     <t>UHK-Univerzita Hradec Králové</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FH</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>JB</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>JC</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>FJ</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>FQ</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>Medical and Health Sciences</t>
+  </si>
+  <si>
+    <t>Natural Sciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineering and Technology </t>
+  </si>
+  <si>
+    <t>Social Sciences</t>
+  </si>
+  <si>
+    <t>Humanities and the Arts</t>
   </si>
 </sst>
 </file>
@@ -2235,7 +2316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S127"/>
+  <dimension ref="A1:W126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2246,7 +2327,7 @@
     <col min="8" max="8" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2304,13 +2385,25 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>0.2</v>
@@ -2319,25 +2412,25 @@
         <v>9.7264233</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L2" t="s">
         <v>589</v>
@@ -2363,13 +2456,25 @@
       <c r="S2" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" t="s">
+        <v>617</v>
+      </c>
+      <c r="U2" t="s">
+        <v>639</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>2014</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>0.40000001</v>
@@ -2378,25 +2483,25 @@
         <v>3.4002485</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L3" t="s">
         <v>589</v>
@@ -2422,13 +2527,25 @@
       <c r="S3" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" t="s">
+        <v>618</v>
+      </c>
+      <c r="U3" t="s">
+        <v>639</v>
+      </c>
+      <c r="V3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>2015</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2437,25 +2554,25 @@
         <v>75.07824699999999</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L4" t="s">
         <v>589</v>
@@ -2481,13 +2598,25 @@
       <c r="S4" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" t="s">
+        <v>619</v>
+      </c>
+      <c r="U4" t="s">
+        <v>640</v>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>2015</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>0.8888889000000001</v>
@@ -2496,25 +2625,25 @@
         <v>9.6839561</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L5" t="s">
         <v>589</v>
@@ -2540,13 +2669,25 @@
       <c r="S5" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" t="s">
+        <v>619</v>
+      </c>
+      <c r="U5" t="s">
+        <v>640</v>
+      </c>
+      <c r="V5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>2014</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>0.25</v>
@@ -2555,25 +2696,25 @@
         <v>7.5069981</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L6" t="s">
         <v>589</v>
@@ -2599,13 +2740,25 @@
       <c r="S6" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" t="s">
+        <v>620</v>
+      </c>
+      <c r="U6" t="s">
+        <v>641</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>2015</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2614,25 +2767,25 @@
         <v>10.894451</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L7" t="s">
         <v>589</v>
@@ -2658,13 +2811,25 @@
       <c r="S7" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" t="s">
+        <v>619</v>
+      </c>
+      <c r="U7" t="s">
+        <v>640</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>2015</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>0.75</v>
@@ -2673,22 +2838,22 @@
         <v>5.673559200000001</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L8" t="s">
         <v>589</v>
@@ -2714,13 +2879,25 @@
       <c r="S8" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" t="s">
+        <v>621</v>
+      </c>
+      <c r="U8" t="s">
+        <v>642</v>
+      </c>
+      <c r="V8" t="b">
+        <v>1</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>2015</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>0.2857143</v>
@@ -2729,25 +2906,25 @@
         <v>2.1477718</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L9" t="s">
         <v>589</v>
@@ -2773,13 +2950,25 @@
       <c r="S9" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" t="s">
+        <v>618</v>
+      </c>
+      <c r="U9" t="s">
+        <v>639</v>
+      </c>
+      <c r="V9" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>2015</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2788,22 +2977,22 @@
         <v>17.241167</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L10" t="s">
         <v>589</v>
@@ -2829,13 +3018,25 @@
       <c r="S10" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" t="s">
+        <v>619</v>
+      </c>
+      <c r="U10" t="s">
+        <v>640</v>
+      </c>
+      <c r="V10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>2013</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -2844,22 +3045,22 @@
         <v>6.857999799999999</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H11" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K11" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L11" t="s">
         <v>589</v>
@@ -2885,13 +3086,25 @@
       <c r="S11" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" t="s">
+        <v>622</v>
+      </c>
+      <c r="U11" t="s">
+        <v>642</v>
+      </c>
+      <c r="V11" t="b">
+        <v>1</v>
+      </c>
+      <c r="W11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>2014</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2900,25 +3113,25 @@
         <v>18.93885</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H12" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K12" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L12" t="s">
         <v>589</v>
@@ -2944,13 +3157,25 @@
       <c r="S12" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" t="s">
+        <v>622</v>
+      </c>
+      <c r="U12" t="s">
+        <v>642</v>
+      </c>
+      <c r="V12" t="b">
+        <v>0</v>
+      </c>
+      <c r="W12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>2011</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>0.167</v>
@@ -2959,22 +3184,22 @@
         <v>4.6399999</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H13" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K13" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L13" t="s">
         <v>589</v>
@@ -3000,13 +3225,25 @@
       <c r="S13" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" t="s">
+        <v>620</v>
+      </c>
+      <c r="U13" t="s">
+        <v>641</v>
+      </c>
+      <c r="V13" t="b">
+        <v>0</v>
+      </c>
+      <c r="W13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>2014</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>0.5</v>
@@ -3015,22 +3252,22 @@
         <v>61.891827</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H14" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I14" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K14" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L14" t="s">
         <v>589</v>
@@ -3056,13 +3293,25 @@
       <c r="S14" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" t="s">
+        <v>623</v>
+      </c>
+      <c r="U14" t="s">
+        <v>639</v>
+      </c>
+      <c r="V14" t="b">
+        <v>0</v>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>2015</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>0.54545456</v>
@@ -3071,25 +3320,25 @@
         <v>26.685972</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H15" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I15" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K15" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L15" t="s">
         <v>589</v>
@@ -3115,13 +3364,25 @@
       <c r="S15" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" t="s">
+        <v>619</v>
+      </c>
+      <c r="U15" t="s">
+        <v>640</v>
+      </c>
+      <c r="V15" t="b">
+        <v>0</v>
+      </c>
+      <c r="W15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>2014</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3130,22 +3391,22 @@
         <v>7.944364999999999</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G16" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H16" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I16" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K16" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L16" t="s">
         <v>589</v>
@@ -3171,13 +3432,25 @@
       <c r="S16" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" t="s">
+        <v>619</v>
+      </c>
+      <c r="U16" t="s">
+        <v>640</v>
+      </c>
+      <c r="V16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17">
         <v>2014</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>0.33333334</v>
@@ -3186,22 +3459,22 @@
         <v>10.251451</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H17" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I17" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K17" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L17" t="s">
         <v>589</v>
@@ -3227,13 +3500,25 @@
       <c r="S17" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17" t="s">
+        <v>617</v>
+      </c>
+      <c r="U17" t="s">
+        <v>639</v>
+      </c>
+      <c r="V17" t="b">
+        <v>0</v>
+      </c>
+      <c r="W17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18">
         <v>2013</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3242,25 +3527,25 @@
         <v>13.26</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G18" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H18" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I18" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L18" t="s">
         <v>589</v>
@@ -3286,13 +3571,25 @@
       <c r="S18" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18" t="s">
+        <v>620</v>
+      </c>
+      <c r="U18" t="s">
+        <v>641</v>
+      </c>
+      <c r="V18" t="b">
+        <v>0</v>
+      </c>
+      <c r="W18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19">
         <v>2014</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3301,25 +3598,25 @@
         <v>7.944364999999999</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G19" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H19" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I19" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K19" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L19" t="s">
         <v>589</v>
@@ -3345,13 +3642,25 @@
       <c r="S19" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19" t="s">
+        <v>619</v>
+      </c>
+      <c r="U19" t="s">
+        <v>640</v>
+      </c>
+      <c r="V19" t="b">
+        <v>0</v>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20">
         <v>2014</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>0.5</v>
@@ -3360,22 +3669,22 @@
         <v>13.412194</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G20" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H20" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I20" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K20" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L20" t="s">
         <v>589</v>
@@ -3401,13 +3710,25 @@
       <c r="S20" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20" t="s">
+        <v>622</v>
+      </c>
+      <c r="U20" t="s">
+        <v>642</v>
+      </c>
+      <c r="V20" t="b">
+        <v>1</v>
+      </c>
+      <c r="W20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21">
         <v>2015</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>0.875</v>
@@ -3416,22 +3737,22 @@
         <v>26.016777</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G21" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H21" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="I21" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K21" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L21" t="s">
         <v>589</v>
@@ -3457,13 +3778,25 @@
       <c r="S21" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21" t="s">
+        <v>622</v>
+      </c>
+      <c r="U21" t="s">
+        <v>642</v>
+      </c>
+      <c r="V21" t="b">
+        <v>0</v>
+      </c>
+      <c r="W21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22">
         <v>2015</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>0.5</v>
@@ -3472,22 +3805,22 @@
         <v>9.4348984</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H22" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I22" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K22" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L22" t="s">
         <v>589</v>
@@ -3513,13 +3846,25 @@
       <c r="S22" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22" t="s">
+        <v>624</v>
+      </c>
+      <c r="U22" t="s">
+        <v>640</v>
+      </c>
+      <c r="V22" t="b">
+        <v>0</v>
+      </c>
+      <c r="W22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23">
         <v>2011</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>0.167</v>
@@ -3528,25 +3873,25 @@
         <v>4.6399999</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G23" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H23" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I23" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K23" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L23" t="s">
         <v>589</v>
@@ -3572,13 +3917,25 @@
       <c r="S23" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23" t="s">
+        <v>625</v>
+      </c>
+      <c r="U23" t="s">
+        <v>641</v>
+      </c>
+      <c r="V23" t="b">
+        <v>0</v>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24">
         <v>2013</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>0.5</v>
@@ -3587,22 +3944,22 @@
         <v>6.689000099999999</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G24" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H24" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I24" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K24" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L24" t="s">
         <v>589</v>
@@ -3628,13 +3985,25 @@
       <c r="S24" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24" t="s">
+        <v>619</v>
+      </c>
+      <c r="U24" t="s">
+        <v>640</v>
+      </c>
+      <c r="V24" t="b">
+        <v>0</v>
+      </c>
+      <c r="W24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25">
         <v>2013</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -3643,25 +4012,25 @@
         <v>10.248</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G25" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H25" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I25" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K25" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L25" t="s">
         <v>589</v>
@@ -3687,13 +4056,25 @@
       <c r="S25" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25" t="s">
+        <v>620</v>
+      </c>
+      <c r="U25" t="s">
+        <v>641</v>
+      </c>
+      <c r="V25" t="b">
+        <v>0</v>
+      </c>
+      <c r="W25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26">
         <v>2015</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>0.40000001</v>
@@ -3702,25 +4083,25 @@
         <v>12.953477</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G26" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H26" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I26" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K26" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L26" t="s">
         <v>589</v>
@@ -3746,13 +4127,25 @@
       <c r="S26" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26" t="s">
+        <v>626</v>
+      </c>
+      <c r="U26" t="s">
+        <v>640</v>
+      </c>
+      <c r="V26" t="b">
+        <v>0</v>
+      </c>
+      <c r="W26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27">
         <v>2015</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3761,22 +4154,22 @@
         <v>10.980762</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G27" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H27" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I27" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K27" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L27" t="s">
         <v>589</v>
@@ -3802,13 +4195,25 @@
       <c r="S27" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27" t="s">
+        <v>622</v>
+      </c>
+      <c r="U27" t="s">
+        <v>642</v>
+      </c>
+      <c r="V27" t="b">
+        <v>1</v>
+      </c>
+      <c r="W27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28">
         <v>2014</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C28">
         <v>0.85714287</v>
@@ -3817,25 +4222,25 @@
         <v>55.916325</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G28" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H28" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I28" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K28" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L28" t="s">
         <v>589</v>
@@ -3861,13 +4266,25 @@
       <c r="S28" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28" t="s">
+        <v>619</v>
+      </c>
+      <c r="U28" t="s">
+        <v>640</v>
+      </c>
+      <c r="V28" t="b">
+        <v>0</v>
+      </c>
+      <c r="W28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29">
         <v>2014</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3876,22 +4293,22 @@
         <v>26.824389</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G29" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H29" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I29" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K29" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L29" t="s">
         <v>589</v>
@@ -3917,13 +4334,25 @@
       <c r="S29" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29" t="s">
+        <v>622</v>
+      </c>
+      <c r="U29" t="s">
+        <v>642</v>
+      </c>
+      <c r="V29" t="b">
+        <v>1</v>
+      </c>
+      <c r="W29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30">
         <v>2015</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C30">
         <v>0.14285715</v>
@@ -3932,22 +4361,22 @@
         <v>3.3861365</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G30" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H30" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I30" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K30" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L30" t="s">
         <v>589</v>
@@ -3973,13 +4402,25 @@
       <c r="S30" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30" t="s">
+        <v>627</v>
+      </c>
+      <c r="U30" t="s">
+        <v>639</v>
+      </c>
+      <c r="V30" t="b">
+        <v>0</v>
+      </c>
+      <c r="W30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31">
         <v>2012</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C31">
         <v>0.5</v>
@@ -3988,25 +4429,25 @@
         <v>4.994999900000001</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G31" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H31" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I31" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K31" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L31" t="s">
         <v>589</v>
@@ -4032,13 +4473,25 @@
       <c r="S31" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="T31" t="s">
+        <v>628</v>
+      </c>
+      <c r="U31" t="s">
+        <v>642</v>
+      </c>
+      <c r="V31" t="b">
+        <v>0</v>
+      </c>
+      <c r="W31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32">
         <v>2012</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -4047,22 +4500,22 @@
         <v>10.572</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G32" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H32" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I32" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K32" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L32" t="s">
         <v>589</v>
@@ -4088,13 +4541,25 @@
       <c r="S32" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32" t="s">
+        <v>622</v>
+      </c>
+      <c r="U32" t="s">
+        <v>642</v>
+      </c>
+      <c r="V32" t="b">
+        <v>0</v>
+      </c>
+      <c r="W32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33">
         <v>2013</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -4103,25 +4568,25 @@
         <v>14.241</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G33" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H33" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I33" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K33" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L33" t="s">
         <v>589</v>
@@ -4147,13 +4612,25 @@
       <c r="S33" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="T33" t="s">
+        <v>620</v>
+      </c>
+      <c r="U33" t="s">
+        <v>641</v>
+      </c>
+      <c r="V33" t="b">
+        <v>0</v>
+      </c>
+      <c r="W33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34">
         <v>2015</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C34">
         <v>0.5</v>
@@ -4162,22 +4639,22 @@
         <v>4.0000296</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G34" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H34" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I34" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K34" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L34" t="s">
         <v>589</v>
@@ -4203,13 +4680,25 @@
       <c r="S34" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="T34" t="s">
+        <v>629</v>
+      </c>
+      <c r="U34" t="s">
+        <v>643</v>
+      </c>
+      <c r="V34" t="b">
+        <v>1</v>
+      </c>
+      <c r="W34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35">
         <v>2014</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -4218,22 +4707,22 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G35" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H35" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I35" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K35" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L35" t="s">
         <v>589</v>
@@ -4259,13 +4748,25 @@
       <c r="S35" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="T35" t="s">
+        <v>619</v>
+      </c>
+      <c r="U35" t="s">
+        <v>640</v>
+      </c>
+      <c r="V35" t="b">
+        <v>0</v>
+      </c>
+      <c r="W35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36">
         <v>2015</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C36">
         <v>0.25</v>
@@ -4274,22 +4775,22 @@
         <v>2.1144757</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G36" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H36" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I36" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K36" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L36" t="s">
         <v>589</v>
@@ -4315,13 +4816,25 @@
       <c r="S36" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="T36" t="s">
+        <v>630</v>
+      </c>
+      <c r="U36" t="s">
+        <v>642</v>
+      </c>
+      <c r="V36" t="b">
+        <v>0</v>
+      </c>
+      <c r="W36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37">
         <v>2014</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -4330,25 +4843,25 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G37" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H37" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I37" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K37" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L37" t="s">
         <v>589</v>
@@ -4374,13 +4887,25 @@
       <c r="S37" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="T37" t="s">
+        <v>619</v>
+      </c>
+      <c r="U37" t="s">
+        <v>640</v>
+      </c>
+      <c r="V37" t="b">
+        <v>0</v>
+      </c>
+      <c r="W37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38">
         <v>2015</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4389,25 +4914,25 @@
         <v>57.229115</v>
       </c>
       <c r="E38" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F38" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G38" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H38" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I38" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K38" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L38" t="s">
         <v>589</v>
@@ -4433,13 +4958,25 @@
       <c r="S38" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="T38" t="s">
+        <v>619</v>
+      </c>
+      <c r="U38" t="s">
+        <v>640</v>
+      </c>
+      <c r="V38" t="b">
+        <v>0</v>
+      </c>
+      <c r="W38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39">
         <v>2014</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4448,25 +4985,25 @@
         <v>9.0602999</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G39" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H39" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I39" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K39" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L39" t="s">
         <v>589</v>
@@ -4492,13 +5029,25 @@
       <c r="S39" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="T39" t="s">
+        <v>621</v>
+      </c>
+      <c r="U39" t="s">
+        <v>642</v>
+      </c>
+      <c r="V39" t="b">
+        <v>1</v>
+      </c>
+      <c r="W39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40">
         <v>2014</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -4507,25 +5056,25 @@
         <v>17.722298</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G40" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H40" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I40" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K40" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L40" t="s">
         <v>589</v>
@@ -4551,13 +5100,25 @@
       <c r="S40" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="T40" t="s">
+        <v>621</v>
+      </c>
+      <c r="U40" t="s">
+        <v>642</v>
+      </c>
+      <c r="V40" t="b">
+        <v>1</v>
+      </c>
+      <c r="W40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41">
         <v>2015</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C41">
         <v>0.80000001</v>
@@ -4566,25 +5127,25 @@
         <v>69.537094</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G41" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H41" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I41" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K41" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L41" t="s">
         <v>589</v>
@@ -4610,13 +5171,25 @@
       <c r="S41" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="T41" t="s">
+        <v>631</v>
+      </c>
+      <c r="U41" t="s">
+        <v>640</v>
+      </c>
+      <c r="V41" t="b">
+        <v>0</v>
+      </c>
+      <c r="W41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42">
         <v>2015</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C42">
         <v>0.5</v>
@@ -4625,25 +5198,25 @@
         <v>8.561986900000001</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G42" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H42" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I42" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K42" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L42" t="s">
         <v>589</v>
@@ -4669,13 +5242,25 @@
       <c r="S42" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="T42" t="s">
+        <v>632</v>
+      </c>
+      <c r="U42" t="s">
+        <v>639</v>
+      </c>
+      <c r="V42" t="b">
+        <v>0</v>
+      </c>
+      <c r="W42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43">
         <v>2011</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4684,22 +5269,22 @@
         <v>13.06</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G43" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H43" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I43" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K43" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L43" t="s">
         <v>589</v>
@@ -4725,13 +5310,25 @@
       <c r="S43" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="T43" t="s">
+        <v>619</v>
+      </c>
+      <c r="U43" t="s">
+        <v>640</v>
+      </c>
+      <c r="V43" t="b">
+        <v>1</v>
+      </c>
+      <c r="W43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44">
         <v>2015</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C44">
         <v>0.42857143</v>
@@ -4740,25 +5337,25 @@
         <v>3.6494665</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G44" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H44" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I44" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K44" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L44" t="s">
         <v>589</v>
@@ -4784,13 +5381,25 @@
       <c r="S44" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="T44" t="s">
+        <v>617</v>
+      </c>
+      <c r="U44" t="s">
+        <v>639</v>
+      </c>
+      <c r="V44" t="b">
+        <v>0</v>
+      </c>
+      <c r="W44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45">
         <v>2014</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4799,22 +5408,22 @@
         <v>21.0744</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F45" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G45" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H45" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I45" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K45" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L45" t="s">
         <v>589</v>
@@ -4840,13 +5449,25 @@
       <c r="S45" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="T45" t="s">
+        <v>622</v>
+      </c>
+      <c r="U45" t="s">
+        <v>642</v>
+      </c>
+      <c r="V45" t="b">
+        <v>1</v>
+      </c>
+      <c r="W45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46">
         <v>2012</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C46">
         <v>0.5</v>
@@ -4855,22 +5476,22 @@
         <v>16.785</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G46" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H46" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I46" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K46" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L46" t="s">
         <v>589</v>
@@ -4896,13 +5517,25 @@
       <c r="S46" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="T46" t="s">
+        <v>622</v>
+      </c>
+      <c r="U46" t="s">
+        <v>642</v>
+      </c>
+      <c r="V46" t="b">
+        <v>1</v>
+      </c>
+      <c r="W46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47">
         <v>2014</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4911,22 +5544,22 @@
         <v>29.030094</v>
       </c>
       <c r="E47" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F47" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G47" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H47" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I47" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K47" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L47" t="s">
         <v>589</v>
@@ -4952,13 +5585,25 @@
       <c r="S47" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="T47" t="s">
+        <v>622</v>
+      </c>
+      <c r="U47" t="s">
+        <v>642</v>
+      </c>
+      <c r="V47" t="b">
+        <v>0</v>
+      </c>
+      <c r="W47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48">
         <v>2014</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C48">
         <v>0.375</v>
@@ -4967,22 +5612,22 @@
         <v>46.418873</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G48" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H48" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I48" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K48" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L48" t="s">
         <v>589</v>
@@ -5008,13 +5653,25 @@
       <c r="S48" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="49" spans="1:19">
+      <c r="T48" t="s">
+        <v>617</v>
+      </c>
+      <c r="U48" t="s">
+        <v>639</v>
+      </c>
+      <c r="V48" t="b">
+        <v>0</v>
+      </c>
+      <c r="W48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49">
         <v>2011</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -5023,22 +5680,22 @@
         <v>12.959</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F49" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G49" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H49" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I49" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K49" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L49" t="s">
         <v>589</v>
@@ -5064,13 +5721,25 @@
       <c r="S49" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="50" spans="1:19">
+      <c r="T49" t="s">
+        <v>621</v>
+      </c>
+      <c r="U49" t="s">
+        <v>642</v>
+      </c>
+      <c r="V49" t="b">
+        <v>1</v>
+      </c>
+      <c r="W49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50">
         <v>2014</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -5079,22 +5748,22 @@
         <v>6.6074262</v>
       </c>
       <c r="E50" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F50" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G50" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H50" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="I50" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K50" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L50" t="s">
         <v>589</v>
@@ -5120,13 +5789,25 @@
       <c r="S50" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="T50" t="s">
+        <v>628</v>
+      </c>
+      <c r="U50" t="s">
+        <v>642</v>
+      </c>
+      <c r="V50" t="b">
+        <v>1</v>
+      </c>
+      <c r="W50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51">
         <v>2013</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -5135,22 +5816,22 @@
         <v>7.349999900000001</v>
       </c>
       <c r="E51" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F51" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G51" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H51" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I51" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K51" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L51" t="s">
         <v>589</v>
@@ -5176,13 +5857,25 @@
       <c r="S51" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="52" spans="1:19">
+      <c r="T51" t="s">
+        <v>628</v>
+      </c>
+      <c r="U51" t="s">
+        <v>642</v>
+      </c>
+      <c r="V51" t="b">
+        <v>0</v>
+      </c>
+      <c r="W51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52">
         <v>2015</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C52">
         <v>0.052631579</v>
@@ -5191,25 +5884,25 @@
         <v>0.59591401</v>
       </c>
       <c r="E52" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F52" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G52" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H52" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="I52" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K52" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L52" t="s">
         <v>589</v>
@@ -5235,13 +5928,25 @@
       <c r="S52" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="53" spans="1:19">
+      <c r="T52" t="s">
+        <v>623</v>
+      </c>
+      <c r="U52" t="s">
+        <v>639</v>
+      </c>
+      <c r="V52" t="b">
+        <v>0</v>
+      </c>
+      <c r="W52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53">
         <v>2015</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C53">
         <v>0.05882353</v>
@@ -5250,25 +5955,25 @@
         <v>8.2556963</v>
       </c>
       <c r="E53" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F53" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G53" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H53" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="I53" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K53" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L53" t="s">
         <v>589</v>
@@ -5294,13 +5999,25 @@
       <c r="S53" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="54" spans="1:19">
+      <c r="T53" t="s">
+        <v>623</v>
+      </c>
+      <c r="U53" t="s">
+        <v>639</v>
+      </c>
+      <c r="V53" t="b">
+        <v>0</v>
+      </c>
+      <c r="W53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54">
         <v>2012</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5309,22 +6026,22 @@
         <v>9.343000399999999</v>
       </c>
       <c r="E54" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F54" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G54" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H54" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="I54" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K54" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L54" t="s">
         <v>589</v>
@@ -5350,13 +6067,25 @@
       <c r="S54" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="55" spans="1:19">
+      <c r="T54" t="s">
+        <v>619</v>
+      </c>
+      <c r="U54" t="s">
+        <v>640</v>
+      </c>
+      <c r="V54" t="b">
+        <v>0</v>
+      </c>
+      <c r="W54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55">
         <v>2015</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C55">
         <v>0.125</v>
@@ -5365,25 +6094,25 @@
         <v>1.4453859</v>
       </c>
       <c r="E55" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F55" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G55" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H55" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I55" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K55" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L55" t="s">
         <v>589</v>
@@ -5409,13 +6138,25 @@
       <c r="S55" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="56" spans="1:19">
+      <c r="T55" t="s">
+        <v>623</v>
+      </c>
+      <c r="U55" t="s">
+        <v>639</v>
+      </c>
+      <c r="V55" t="b">
+        <v>0</v>
+      </c>
+      <c r="W55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56">
         <v>2013</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -5424,22 +6165,22 @@
         <v>9.8940001</v>
       </c>
       <c r="E56" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F56" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G56" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H56" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I56" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K56" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L56" t="s">
         <v>589</v>
@@ -5465,13 +6206,25 @@
       <c r="S56" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="57" spans="1:19">
+      <c r="T56" t="s">
+        <v>621</v>
+      </c>
+      <c r="U56" t="s">
+        <v>642</v>
+      </c>
+      <c r="V56" t="b">
+        <v>1</v>
+      </c>
+      <c r="W56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57">
         <v>2012</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C57">
         <v>0.625</v>
@@ -5480,22 +6233,22 @@
         <v>10.751</v>
       </c>
       <c r="E57" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F57" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G57" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H57" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="I57" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K57" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L57" t="s">
         <v>589</v>
@@ -5521,13 +6274,25 @@
       <c r="S57" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="T57" t="s">
+        <v>625</v>
+      </c>
+      <c r="U57" t="s">
+        <v>641</v>
+      </c>
+      <c r="V57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58">
         <v>2015</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -5536,22 +6301,22 @@
         <v>14.461787</v>
       </c>
       <c r="E58" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F58" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G58" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H58" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I58" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K58" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L58" t="s">
         <v>589</v>
@@ -5577,13 +6342,25 @@
       <c r="S58" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="59" spans="1:19">
+      <c r="T58" t="s">
+        <v>622</v>
+      </c>
+      <c r="U58" t="s">
+        <v>642</v>
+      </c>
+      <c r="V58" t="b">
+        <v>0</v>
+      </c>
+      <c r="W58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59">
         <v>2015</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -5592,25 +6369,25 @@
         <v>14.461787</v>
       </c>
       <c r="E59" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F59" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G59" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H59" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I59" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K59" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L59" t="s">
         <v>589</v>
@@ -5636,13 +6413,25 @@
       <c r="S59" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="60" spans="1:19">
+      <c r="T59" t="s">
+        <v>622</v>
+      </c>
+      <c r="U59" t="s">
+        <v>642</v>
+      </c>
+      <c r="V59" t="b">
+        <v>0</v>
+      </c>
+      <c r="W59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60">
         <v>2012</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -5651,22 +6440,22 @@
         <v>33.57</v>
       </c>
       <c r="E60" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F60" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G60" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H60" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I60" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K60" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L60" t="s">
         <v>589</v>
@@ -5692,13 +6481,25 @@
       <c r="S60" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="61" spans="1:19">
+      <c r="T60" t="s">
+        <v>622</v>
+      </c>
+      <c r="U60" t="s">
+        <v>642</v>
+      </c>
+      <c r="V60" t="b">
+        <v>1</v>
+      </c>
+      <c r="W60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61">
         <v>2013</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -5707,22 +6508,22 @@
         <v>9.8940001</v>
       </c>
       <c r="E61" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F61" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G61" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H61" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I61" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K61" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L61" t="s">
         <v>589</v>
@@ -5748,13 +6549,25 @@
       <c r="S61" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="62" spans="1:19">
+      <c r="T61" t="s">
+        <v>621</v>
+      </c>
+      <c r="U61" t="s">
+        <v>642</v>
+      </c>
+      <c r="V61" t="b">
+        <v>1</v>
+      </c>
+      <c r="W61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62">
         <v>2014</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -5763,22 +6576,22 @@
         <v>15.888465</v>
       </c>
       <c r="E62" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F62" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G62" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H62" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I62" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K62" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L62" t="s">
         <v>589</v>
@@ -5804,13 +6617,25 @@
       <c r="S62" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="63" spans="1:19">
+      <c r="T62" t="s">
+        <v>630</v>
+      </c>
+      <c r="U62" t="s">
+        <v>642</v>
+      </c>
+      <c r="V62" t="b">
+        <v>1</v>
+      </c>
+      <c r="W62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63">
         <v>2014</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C63">
         <v>0.25</v>
@@ -5819,22 +6644,22 @@
         <v>30.945913</v>
       </c>
       <c r="E63" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G63" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H63" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I63" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K63" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L63" t="s">
         <v>589</v>
@@ -5860,13 +6685,25 @@
       <c r="S63" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="64" spans="1:19">
+      <c r="T63" t="s">
+        <v>617</v>
+      </c>
+      <c r="U63" t="s">
+        <v>639</v>
+      </c>
+      <c r="V63" t="b">
+        <v>0</v>
+      </c>
+      <c r="W63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64">
         <v>2012</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C64">
         <v>0.5</v>
@@ -5875,25 +6712,25 @@
         <v>20.809999</v>
       </c>
       <c r="E64" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G64" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H64" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I64" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K64" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L64" t="s">
         <v>589</v>
@@ -5919,13 +6756,25 @@
       <c r="S64" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="65" spans="1:19">
+      <c r="T64" t="s">
+        <v>620</v>
+      </c>
+      <c r="U64" t="s">
+        <v>641</v>
+      </c>
+      <c r="V64" t="b">
+        <v>0</v>
+      </c>
+      <c r="W64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65">
         <v>2014</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -5934,22 +6783,22 @@
         <v>6.2848263</v>
       </c>
       <c r="E65" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F65" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G65" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H65" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I65" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K65" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L65" t="s">
         <v>589</v>
@@ -5975,13 +6824,25 @@
       <c r="S65" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="66" spans="1:19">
+      <c r="T65" t="s">
+        <v>633</v>
+      </c>
+      <c r="U65" t="s">
+        <v>639</v>
+      </c>
+      <c r="V65" t="b">
+        <v>0</v>
+      </c>
+      <c r="W65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66">
         <v>2012</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -5990,22 +6851,22 @@
         <v>19.594999</v>
       </c>
       <c r="E66" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F66" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G66" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H66" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="I66" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K66" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L66" t="s">
         <v>589</v>
@@ -6031,13 +6892,25 @@
       <c r="S66" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="67" spans="1:19">
+      <c r="T66" t="s">
+        <v>621</v>
+      </c>
+      <c r="U66" t="s">
+        <v>642</v>
+      </c>
+      <c r="V66" t="b">
+        <v>1</v>
+      </c>
+      <c r="W66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67">
         <v>2014</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6046,25 +6919,25 @@
         <v>26.824389</v>
       </c>
       <c r="E67" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F67" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G67" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H67" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I67" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K67" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L67" t="s">
         <v>589</v>
@@ -6090,13 +6963,25 @@
       <c r="S67" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="68" spans="1:19">
+      <c r="T67" t="s">
+        <v>622</v>
+      </c>
+      <c r="U67" t="s">
+        <v>642</v>
+      </c>
+      <c r="V67" t="b">
+        <v>1</v>
+      </c>
+      <c r="W67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68">
         <v>2015</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C68">
         <v>0.40000001</v>
@@ -6105,25 +6990,25 @@
         <v>6.2950397</v>
       </c>
       <c r="E68" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F68" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G68" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H68" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="I68" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K68" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L68" t="s">
         <v>589</v>
@@ -6149,13 +7034,25 @@
       <c r="S68" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="69" spans="1:19">
+      <c r="T68" t="s">
+        <v>634</v>
+      </c>
+      <c r="U68" t="s">
+        <v>640</v>
+      </c>
+      <c r="V68" t="b">
+        <v>0</v>
+      </c>
+      <c r="W68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69">
         <v>2015</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C69">
         <v>0.22222222</v>
@@ -6164,25 +7061,25 @@
         <v>3.4675603</v>
       </c>
       <c r="E69" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F69" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G69" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H69" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I69" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K69" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L69" t="s">
         <v>589</v>
@@ -6208,13 +7105,25 @@
       <c r="S69" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="70" spans="1:19">
+      <c r="T69" t="s">
+        <v>619</v>
+      </c>
+      <c r="U69" t="s">
+        <v>640</v>
+      </c>
+      <c r="V69" t="b">
+        <v>0</v>
+      </c>
+      <c r="W69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70">
         <v>2015</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C70">
         <v>0.14285715</v>
@@ -6223,22 +7132,22 @@
         <v>5.483536200000001</v>
       </c>
       <c r="E70" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F70" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G70" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H70" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I70" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K70" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L70" t="s">
         <v>589</v>
@@ -6264,13 +7173,25 @@
       <c r="S70" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="71" spans="1:19">
+      <c r="T70" t="s">
+        <v>623</v>
+      </c>
+      <c r="U70" t="s">
+        <v>639</v>
+      </c>
+      <c r="V70" t="b">
+        <v>0</v>
+      </c>
+      <c r="W70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71">
         <v>2012</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C71">
         <v>0.5</v>
@@ -6279,22 +7200,22 @@
         <v>4.7989998</v>
       </c>
       <c r="E71" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F71" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G71" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H71" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="I71" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K71" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L71" t="s">
         <v>589</v>
@@ -6320,13 +7241,25 @@
       <c r="S71" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="72" spans="1:19">
+      <c r="T71" t="s">
+        <v>628</v>
+      </c>
+      <c r="U71" t="s">
+        <v>642</v>
+      </c>
+      <c r="V71" t="b">
+        <v>1</v>
+      </c>
+      <c r="W71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72">
         <v>2014</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C72">
         <v>0.25</v>
@@ -6335,25 +7268,25 @@
         <v>12.224443</v>
       </c>
       <c r="E72" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F72" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G72" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H72" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I72" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K72" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L72" t="s">
         <v>589</v>
@@ -6379,13 +7312,25 @@
       <c r="S72" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="73" spans="1:19">
+      <c r="T72" t="s">
+        <v>617</v>
+      </c>
+      <c r="U72" t="s">
+        <v>639</v>
+      </c>
+      <c r="V72" t="b">
+        <v>0</v>
+      </c>
+      <c r="W72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73">
         <v>2012</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C73">
         <v>0.40000001</v>
@@ -6394,22 +7339,22 @@
         <v>5.0570002</v>
       </c>
       <c r="E73" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F73" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G73" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H73" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I73" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K73" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L73" t="s">
         <v>589</v>
@@ -6435,13 +7380,25 @@
       <c r="S73" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="74" spans="1:19">
+      <c r="T73" t="s">
+        <v>625</v>
+      </c>
+      <c r="U73" t="s">
+        <v>641</v>
+      </c>
+      <c r="V73" t="b">
+        <v>0</v>
+      </c>
+      <c r="W73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74">
         <v>2014</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C74">
         <v>0.22222222</v>
@@ -6450,25 +7407,25 @@
         <v>11.468509</v>
       </c>
       <c r="E74" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F74" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G74" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H74" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I74" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K74" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L74" t="s">
         <v>589</v>
@@ -6494,13 +7451,25 @@
       <c r="S74" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="75" spans="1:19">
+      <c r="T74" t="s">
+        <v>628</v>
+      </c>
+      <c r="U74" t="s">
+        <v>642</v>
+      </c>
+      <c r="V74" t="b">
+        <v>0</v>
+      </c>
+      <c r="W74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75">
         <v>2012</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C75">
         <v>0.66666669</v>
@@ -6509,22 +7478,22 @@
         <v>9.923000300000002</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F75" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G75" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H75" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="I75" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K75" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L75" t="s">
         <v>589</v>
@@ -6550,13 +7519,25 @@
       <c r="S75" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="76" spans="1:19">
+      <c r="T75" t="s">
+        <v>626</v>
+      </c>
+      <c r="U75" t="s">
+        <v>640</v>
+      </c>
+      <c r="V75" t="b">
+        <v>0</v>
+      </c>
+      <c r="W75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76">
         <v>2013</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -6565,22 +7546,22 @@
         <v>16.754999</v>
       </c>
       <c r="E76" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F76" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G76" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H76" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I76" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K76" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L76" t="s">
         <v>589</v>
@@ -6606,13 +7587,25 @@
       <c r="S76" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="77" spans="1:19">
+      <c r="T76" t="s">
+        <v>619</v>
+      </c>
+      <c r="U76" t="s">
+        <v>640</v>
+      </c>
+      <c r="V76" t="b">
+        <v>0</v>
+      </c>
+      <c r="W76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77">
         <v>2011</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -6621,22 +7614,22 @@
         <v>13.974</v>
       </c>
       <c r="E77" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F77" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G77" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H77" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I77" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K77" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L77" t="s">
         <v>589</v>
@@ -6662,13 +7655,25 @@
       <c r="S77" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="78" spans="1:19">
+      <c r="T77" t="s">
+        <v>621</v>
+      </c>
+      <c r="U77" t="s">
+        <v>642</v>
+      </c>
+      <c r="V77" t="b">
+        <v>1</v>
+      </c>
+      <c r="W77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78">
         <v>2012</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -6677,22 +7682,22 @@
         <v>14.825</v>
       </c>
       <c r="E78" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F78" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G78" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H78" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I78" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K78" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L78" t="s">
         <v>589</v>
@@ -6718,13 +7723,25 @@
       <c r="S78" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="79" spans="1:19">
+      <c r="T78" t="s">
+        <v>626</v>
+      </c>
+      <c r="U78" t="s">
+        <v>640</v>
+      </c>
+      <c r="V78" t="b">
+        <v>1</v>
+      </c>
+      <c r="W78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79">
         <v>2012</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C79">
         <v>0.80000001</v>
@@ -6733,22 +7750,22 @@
         <v>9.286000300000001</v>
       </c>
       <c r="E79" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F79" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G79" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H79" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I79" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K79" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L79" t="s">
         <v>589</v>
@@ -6774,13 +7791,25 @@
       <c r="S79" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="80" spans="1:19">
+      <c r="T79" t="s">
+        <v>619</v>
+      </c>
+      <c r="U79" t="s">
+        <v>640</v>
+      </c>
+      <c r="V79" t="b">
+        <v>1</v>
+      </c>
+      <c r="W79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80">
         <v>2011</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C80">
         <v>0.167</v>
@@ -6789,25 +7818,25 @@
         <v>5.598</v>
       </c>
       <c r="E80" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F80" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G80" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H80" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I80" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K80" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L80" t="s">
         <v>589</v>
@@ -6833,13 +7862,25 @@
       <c r="S80" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="81" spans="1:19">
+      <c r="T80" t="s">
+        <v>625</v>
+      </c>
+      <c r="U80" t="s">
+        <v>641</v>
+      </c>
+      <c r="V80" t="b">
+        <v>0</v>
+      </c>
+      <c r="W80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81">
         <v>2015</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C81">
         <v>0.5</v>
@@ -6848,25 +7889,25 @@
         <v>10.907743</v>
       </c>
       <c r="E81" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F81" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G81" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H81" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I81" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K81" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L81" t="s">
         <v>589</v>
@@ -6892,13 +7933,25 @@
       <c r="S81" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="82" spans="1:19">
+      <c r="T81" t="s">
+        <v>619</v>
+      </c>
+      <c r="U81" t="s">
+        <v>640</v>
+      </c>
+      <c r="V81" t="b">
+        <v>1</v>
+      </c>
+      <c r="W81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82">
         <v>2012</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -6907,25 +7960,25 @@
         <v>13.172</v>
       </c>
       <c r="E82" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F82" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G82" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H82" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I82" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K82" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L82" t="s">
         <v>589</v>
@@ -6951,13 +8004,25 @@
       <c r="S82" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="83" spans="1:19">
+      <c r="T82" t="s">
+        <v>621</v>
+      </c>
+      <c r="U82" t="s">
+        <v>642</v>
+      </c>
+      <c r="V82" t="b">
+        <v>1</v>
+      </c>
+      <c r="W82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83">
         <v>2013</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C83">
         <v>0.25</v>
@@ -6966,22 +8031,22 @@
         <v>3.0020001</v>
       </c>
       <c r="E83" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F83" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G83" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H83" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I83" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K83" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L83" t="s">
         <v>589</v>
@@ -7007,37 +8072,49 @@
       <c r="S83" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="84" spans="1:19">
+      <c r="T83" t="s">
+        <v>622</v>
+      </c>
+      <c r="U83" t="s">
+        <v>642</v>
+      </c>
+      <c r="V83" t="b">
+        <v>1</v>
+      </c>
+      <c r="W83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84">
         <v>2015</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>10.980762</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="F84" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G84" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="H84" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="I84" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K84" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L84" t="s">
         <v>589</v>
@@ -7049,7 +8126,7 @@
         <v>591</v>
       </c>
       <c r="O84" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P84">
         <v>62690094</v>
@@ -7063,37 +8140,52 @@
       <c r="S84" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="85" spans="1:19">
+      <c r="T84" t="s">
+        <v>622</v>
+      </c>
+      <c r="U84" t="s">
+        <v>642</v>
+      </c>
+      <c r="V84" t="b">
+        <v>1</v>
+      </c>
+      <c r="W84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85">
-        <v>10.980762</v>
+        <v>19.945999</v>
       </c>
       <c r="E85" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F85" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G85" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="H85" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="I85" t="s">
-        <v>408</v>
+        <v>409</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>450</v>
       </c>
       <c r="K85" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L85" t="s">
         <v>589</v>
@@ -7119,40 +8211,52 @@
       <c r="S85" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="86" spans="1:19">
+      <c r="T85" t="s">
+        <v>622</v>
+      </c>
+      <c r="U85" t="s">
+        <v>642</v>
+      </c>
+      <c r="V85" t="b">
+        <v>1</v>
+      </c>
+      <c r="W85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
       <c r="A86">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>0.80000001</v>
       </c>
       <c r="D86">
-        <v>19.945999</v>
+        <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="F86" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G86" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H86" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="I86" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K86" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L86" t="s">
         <v>589</v>
@@ -7178,40 +8282,49 @@
       <c r="S86" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="87" spans="1:19">
+      <c r="T86" t="s">
+        <v>622</v>
+      </c>
+      <c r="U86" t="s">
+        <v>642</v>
+      </c>
+      <c r="V86" t="b">
+        <v>0</v>
+      </c>
+      <c r="W86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C87">
-        <v>0.80000001</v>
+        <v>0.33333334</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>5.3557434</v>
       </c>
       <c r="E87" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="F87" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G87" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H87" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I87" t="s">
-        <v>408</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="K87" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L87" t="s">
         <v>589</v>
@@ -7223,107 +8336,131 @@
         <v>591</v>
       </c>
       <c r="O87" t="s">
+        <v>605</v>
+      </c>
+      <c r="P87">
+        <v>62690094</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>614</v>
+      </c>
+      <c r="R87" t="s">
+        <v>615</v>
+      </c>
+      <c r="S87" t="s">
+        <v>616</v>
+      </c>
+      <c r="T87" t="s">
+        <v>630</v>
+      </c>
+      <c r="U87" t="s">
+        <v>642</v>
+      </c>
+      <c r="V87" t="b">
+        <v>0</v>
+      </c>
+      <c r="W87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
+      <c r="A88">
+        <v>2014</v>
+      </c>
+      <c r="B88" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88">
+        <v>0.25</v>
+      </c>
+      <c r="D88">
+        <v>6.706097099999999</v>
+      </c>
+      <c r="E88" t="s">
+        <v>87</v>
+      </c>
+      <c r="F88" t="s">
+        <v>201</v>
+      </c>
+      <c r="G88" t="s">
+        <v>256</v>
+      </c>
+      <c r="H88" t="s">
+        <v>339</v>
+      </c>
+      <c r="I88" t="s">
+        <v>409</v>
+      </c>
+      <c r="K88" t="s">
+        <v>550</v>
+      </c>
+      <c r="L88" t="s">
+        <v>589</v>
+      </c>
+      <c r="M88" t="s">
+        <v>590</v>
+      </c>
+      <c r="N88" t="s">
+        <v>591</v>
+      </c>
+      <c r="O88" t="s">
         <v>597</v>
       </c>
-      <c r="P87">
-        <v>62690094</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>614</v>
-      </c>
-      <c r="R87" t="s">
-        <v>615</v>
-      </c>
-      <c r="S87" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19">
-      <c r="A88">
+      <c r="P88">
+        <v>62690094</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>614</v>
+      </c>
+      <c r="R88" t="s">
+        <v>615</v>
+      </c>
+      <c r="S88" t="s">
+        <v>616</v>
+      </c>
+      <c r="T88" t="s">
+        <v>622</v>
+      </c>
+      <c r="U88" t="s">
+        <v>642</v>
+      </c>
+      <c r="V88" t="b">
+        <v>1</v>
+      </c>
+      <c r="W88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
+      <c r="A89">
         <v>2013</v>
       </c>
-      <c r="B88" t="s">
-        <v>20</v>
-      </c>
-      <c r="C88">
-        <v>0.33333334</v>
-      </c>
-      <c r="D88">
-        <v>5.3557434</v>
-      </c>
-      <c r="E88" t="s">
-        <v>44</v>
-      </c>
-      <c r="F88" t="s">
-        <v>197</v>
-      </c>
-      <c r="G88" t="s">
-        <v>298</v>
-      </c>
-      <c r="H88" t="s">
-        <v>382</v>
-      </c>
-      <c r="I88" t="s">
-        <v>408</v>
-      </c>
-      <c r="K88" t="s">
-        <v>549</v>
-      </c>
-      <c r="L88" t="s">
-        <v>589</v>
-      </c>
-      <c r="M88" t="s">
-        <v>590</v>
-      </c>
-      <c r="N88" t="s">
-        <v>591</v>
-      </c>
-      <c r="O88" t="s">
-        <v>605</v>
-      </c>
-      <c r="P88">
-        <v>62690094</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>614</v>
-      </c>
-      <c r="R88" t="s">
-        <v>615</v>
-      </c>
-      <c r="S88" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19">
-      <c r="A89">
-        <v>2014</v>
-      </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C89">
-        <v>0.25</v>
+        <v>0.66666669</v>
       </c>
       <c r="D89">
-        <v>6.706097099999999</v>
+        <v>9.1776695</v>
       </c>
       <c r="E89" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G89" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
       <c r="H89" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="I89" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K89" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L89" t="s">
         <v>589</v>
@@ -7349,37 +8486,49 @@
       <c r="S89" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="90" spans="1:19">
+      <c r="T89" t="s">
+        <v>622</v>
+      </c>
+      <c r="U89" t="s">
+        <v>642</v>
+      </c>
+      <c r="V89" t="b">
+        <v>0</v>
+      </c>
+      <c r="W89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C90">
-        <v>0.66666669</v>
+        <v>0.375</v>
       </c>
       <c r="D90">
-        <v>9.1776695</v>
+        <v>2.5661132</v>
       </c>
       <c r="E90" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="F90" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G90" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H90" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="I90" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K90" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L90" t="s">
         <v>589</v>
@@ -7391,7 +8540,7 @@
         <v>591</v>
       </c>
       <c r="O90" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="P90">
         <v>62690094</v>
@@ -7405,93 +8554,117 @@
       <c r="S90" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="91" spans="1:19">
+      <c r="T90" t="s">
+        <v>620</v>
+      </c>
+      <c r="U90" t="s">
+        <v>641</v>
+      </c>
+      <c r="V90" t="b">
+        <v>0</v>
+      </c>
+      <c r="W90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91">
+        <v>2011</v>
+      </c>
+      <c r="B91" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91">
+        <v>0.25</v>
+      </c>
+      <c r="D91">
+        <v>3.0280001</v>
+      </c>
+      <c r="E91" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" t="s">
+        <v>204</v>
+      </c>
+      <c r="G91" t="s">
+        <v>303</v>
+      </c>
+      <c r="H91" t="s">
+        <v>386</v>
+      </c>
+      <c r="I91" t="s">
+        <v>407</v>
+      </c>
+      <c r="K91" t="s">
+        <v>553</v>
+      </c>
+      <c r="L91" t="s">
+        <v>589</v>
+      </c>
+      <c r="M91" t="s">
+        <v>590</v>
+      </c>
+      <c r="N91" t="s">
+        <v>591</v>
+      </c>
+      <c r="O91" t="s">
+        <v>600</v>
+      </c>
+      <c r="P91">
+        <v>62690094</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>614</v>
+      </c>
+      <c r="R91" t="s">
+        <v>615</v>
+      </c>
+      <c r="S91" t="s">
+        <v>616</v>
+      </c>
+      <c r="T91" t="s">
+        <v>625</v>
+      </c>
+      <c r="U91" t="s">
+        <v>641</v>
+      </c>
+      <c r="V91" t="b">
+        <v>0</v>
+      </c>
+      <c r="W91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
+      <c r="A92">
         <v>2015</v>
       </c>
-      <c r="B91" t="s">
-        <v>19</v>
-      </c>
-      <c r="C91">
-        <v>0.375</v>
-      </c>
-      <c r="D91">
-        <v>2.5661132</v>
-      </c>
-      <c r="E91" t="s">
-        <v>86</v>
-      </c>
-      <c r="F91" t="s">
-        <v>200</v>
-      </c>
-      <c r="G91" t="s">
-        <v>300</v>
-      </c>
-      <c r="H91" t="s">
-        <v>384</v>
-      </c>
-      <c r="I91" t="s">
-        <v>406</v>
-      </c>
-      <c r="K91" t="s">
-        <v>552</v>
-      </c>
-      <c r="L91" t="s">
-        <v>589</v>
-      </c>
-      <c r="M91" t="s">
-        <v>590</v>
-      </c>
-      <c r="N91" t="s">
-        <v>591</v>
-      </c>
-      <c r="O91" t="s">
-        <v>595</v>
-      </c>
-      <c r="P91">
-        <v>62690094</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>614</v>
-      </c>
-      <c r="R91" t="s">
-        <v>615</v>
-      </c>
-      <c r="S91" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19">
-      <c r="A92">
-        <v>2011</v>
-      </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C92">
-        <v>0.25</v>
+        <v>0.22222222</v>
       </c>
       <c r="D92">
-        <v>3.0280001</v>
+        <v>12.13149</v>
       </c>
       <c r="E92" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="F92" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G92" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H92" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="I92" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K92" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L92" t="s">
         <v>589</v>
@@ -7503,7 +8676,7 @@
         <v>591</v>
       </c>
       <c r="O92" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="P92">
         <v>62690094</v>
@@ -7517,37 +8690,52 @@
       <c r="S92" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="93" spans="1:19">
+      <c r="T92" t="s">
+        <v>635</v>
+      </c>
+      <c r="U92" t="s">
+        <v>640</v>
+      </c>
+      <c r="V92" t="b">
+        <v>0</v>
+      </c>
+      <c r="W92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
       <c r="A93">
         <v>2015</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C93">
-        <v>0.22222222</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>12.13149</v>
+        <v>17.060478</v>
       </c>
       <c r="E93" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F93" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G93" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="H93" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="I93" t="s">
-        <v>409</v>
+        <v>408</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>452</v>
       </c>
       <c r="K93" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L93" t="s">
         <v>589</v>
@@ -7559,7 +8747,7 @@
         <v>591</v>
       </c>
       <c r="O93" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="P93">
         <v>62690094</v>
@@ -7573,40 +8761,49 @@
       <c r="S93" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="94" spans="1:19">
+      <c r="T93" t="s">
+        <v>621</v>
+      </c>
+      <c r="U93" t="s">
+        <v>642</v>
+      </c>
+      <c r="V93" t="b">
+        <v>1</v>
+      </c>
+      <c r="W93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
       <c r="A94">
         <v>2015</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94">
-        <v>17.060478</v>
+        <v>10.894451</v>
       </c>
       <c r="E94" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F94" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G94" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="H94" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="I94" t="s">
         <v>407</v>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="K94" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L94" t="s">
         <v>589</v>
@@ -7618,7 +8815,7 @@
         <v>591</v>
       </c>
       <c r="O94" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="P94">
         <v>62690094</v>
@@ -7632,37 +8829,49 @@
       <c r="S94" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="95" spans="1:19">
+      <c r="T94" t="s">
+        <v>619</v>
+      </c>
+      <c r="U94" t="s">
+        <v>640</v>
+      </c>
+      <c r="V94" t="b">
+        <v>0</v>
+      </c>
+      <c r="W94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
       <c r="A95">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B95" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D95">
-        <v>10.894451</v>
+        <v>6.3499999</v>
       </c>
       <c r="E95" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F95" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G95" t="s">
-        <v>240</v>
+        <v>305</v>
       </c>
       <c r="H95" t="s">
-        <v>324</v>
+        <v>388</v>
       </c>
       <c r="I95" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="K95" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L95" t="s">
         <v>589</v>
@@ -7674,7 +8883,7 @@
         <v>591</v>
       </c>
       <c r="O95" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="P95">
         <v>62690094</v>
@@ -7688,37 +8897,52 @@
       <c r="S95" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="96" spans="1:19">
+      <c r="T95" t="s">
+        <v>636</v>
+      </c>
+      <c r="U95" t="s">
+        <v>643</v>
+      </c>
+      <c r="V95" t="b">
+        <v>0</v>
+      </c>
+      <c r="W95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
       <c r="A96">
         <v>2013</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C96">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>6.3499999</v>
+        <v>12.738701</v>
       </c>
       <c r="E96" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F96" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G96" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H96" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I96" t="s">
-        <v>411</v>
+        <v>409</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>453</v>
       </c>
       <c r="K96" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L96" t="s">
         <v>589</v>
@@ -7730,7 +8954,7 @@
         <v>591</v>
       </c>
       <c r="O96" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="P96">
         <v>62690094</v>
@@ -7744,40 +8968,49 @@
       <c r="S96" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="97" spans="1:19">
+      <c r="T96" t="s">
+        <v>622</v>
+      </c>
+      <c r="U96" t="s">
+        <v>642</v>
+      </c>
+      <c r="V96" t="b">
+        <v>1</v>
+      </c>
+      <c r="W96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
       <c r="A97">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B97" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97">
-        <v>12.738701</v>
+        <v>18.002001</v>
       </c>
       <c r="E97" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F97" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G97" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="H97" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="I97" t="s">
-        <v>408</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>452</v>
+        <v>407</v>
       </c>
       <c r="K97" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L97" t="s">
         <v>589</v>
@@ -7789,7 +9022,7 @@
         <v>591</v>
       </c>
       <c r="O97" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="P97">
         <v>62690094</v>
@@ -7803,37 +9036,49 @@
       <c r="S97" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="98" spans="1:19">
+      <c r="T97" t="s">
+        <v>619</v>
+      </c>
+      <c r="U97" t="s">
+        <v>640</v>
+      </c>
+      <c r="V97" t="b">
+        <v>0</v>
+      </c>
+      <c r="W97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23">
       <c r="A98">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98">
-        <v>18.002001</v>
+        <v>13.974</v>
       </c>
       <c r="E98" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F98" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G98" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H98" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="I98" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="K98" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L98" t="s">
         <v>589</v>
@@ -7845,7 +9090,7 @@
         <v>591</v>
       </c>
       <c r="O98" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="P98">
         <v>62690094</v>
@@ -7859,37 +9104,49 @@
       <c r="S98" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="99" spans="1:19">
+      <c r="T98" t="s">
+        <v>630</v>
+      </c>
+      <c r="U98" t="s">
+        <v>642</v>
+      </c>
+      <c r="V98" t="b">
+        <v>1</v>
+      </c>
+      <c r="W98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23">
       <c r="A99">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>13.974</v>
+        <v>29.523001</v>
       </c>
       <c r="E99" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="F99" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G99" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="H99" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="I99" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K99" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L99" t="s">
         <v>589</v>
@@ -7901,7 +9158,7 @@
         <v>591</v>
       </c>
       <c r="O99" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="P99">
         <v>62690094</v>
@@ -7915,37 +9172,49 @@
       <c r="S99" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="100" spans="1:19">
+      <c r="T99" t="s">
+        <v>620</v>
+      </c>
+      <c r="U99" t="s">
+        <v>641</v>
+      </c>
+      <c r="V99" t="b">
+        <v>0</v>
+      </c>
+      <c r="W99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
       <c r="A100">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B100" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0.80000001</v>
       </c>
       <c r="D100">
-        <v>29.523001</v>
+        <v>18.767132</v>
       </c>
       <c r="E100" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="F100" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G100" t="s">
-        <v>241</v>
+        <v>307</v>
       </c>
       <c r="H100" t="s">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="I100" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K100" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L100" t="s">
         <v>589</v>
@@ -7957,7 +9226,7 @@
         <v>591</v>
       </c>
       <c r="O100" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P100">
         <v>62690094</v>
@@ -7971,37 +9240,49 @@
       <c r="S100" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="101" spans="1:19">
+      <c r="T100" t="s">
+        <v>619</v>
+      </c>
+      <c r="U100" t="s">
+        <v>640</v>
+      </c>
+      <c r="V100" t="b">
+        <v>0</v>
+      </c>
+      <c r="W100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23">
       <c r="A101">
         <v>2014</v>
       </c>
       <c r="B101" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C101">
-        <v>0.80000001</v>
+        <v>0.75</v>
       </c>
       <c r="D101">
-        <v>18.767132</v>
+        <v>13.709537</v>
       </c>
       <c r="E101" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F101" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G101" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H101" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="I101" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="K101" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L101" t="s">
         <v>589</v>
@@ -8013,7 +9294,7 @@
         <v>591</v>
       </c>
       <c r="O101" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="P101">
         <v>62690094</v>
@@ -8027,37 +9308,49 @@
       <c r="S101" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="102" spans="1:19">
+      <c r="T101" t="s">
+        <v>630</v>
+      </c>
+      <c r="U101" t="s">
+        <v>642</v>
+      </c>
+      <c r="V101" t="b">
+        <v>0</v>
+      </c>
+      <c r="W101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23">
       <c r="A102">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C102">
         <v>0.75</v>
       </c>
       <c r="D102">
-        <v>13.709537</v>
+        <v>8.569623</v>
       </c>
       <c r="E102" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F102" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G102" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="H102" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="I102" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K102" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L102" t="s">
         <v>589</v>
@@ -8069,7 +9362,7 @@
         <v>591</v>
       </c>
       <c r="O102" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="P102">
         <v>62690094</v>
@@ -8083,37 +9376,49 @@
       <c r="S102" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="103" spans="1:19">
+      <c r="T102" t="s">
+        <v>618</v>
+      </c>
+      <c r="U102" t="s">
+        <v>639</v>
+      </c>
+      <c r="V102" t="b">
+        <v>1</v>
+      </c>
+      <c r="W102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23">
       <c r="A103">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B103" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C103">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>8.569623</v>
+        <v>16.892183</v>
       </c>
       <c r="E103" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F103" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G103" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H103" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="I103" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K103" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L103" t="s">
         <v>589</v>
@@ -8125,7 +9430,7 @@
         <v>591</v>
       </c>
       <c r="O103" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P103">
         <v>62690094</v>
@@ -8139,37 +9444,52 @@
       <c r="S103" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="104" spans="1:19">
+      <c r="T103" t="s">
+        <v>619</v>
+      </c>
+      <c r="U103" t="s">
+        <v>640</v>
+      </c>
+      <c r="V103" t="b">
+        <v>0</v>
+      </c>
+      <c r="W103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23">
       <c r="A104">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>16.892183</v>
+        <v>17.091</v>
       </c>
       <c r="E104" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F104" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G104" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H104" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I104" t="s">
-        <v>406</v>
+        <v>409</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="K104" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L104" t="s">
         <v>589</v>
@@ -8181,7 +9501,7 @@
         <v>591</v>
       </c>
       <c r="O104" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="P104">
         <v>62690094</v>
@@ -8195,40 +9515,49 @@
       <c r="S104" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="105" spans="1:19">
+      <c r="T104" t="s">
+        <v>630</v>
+      </c>
+      <c r="U104" t="s">
+        <v>642</v>
+      </c>
+      <c r="V104" t="b">
+        <v>0</v>
+      </c>
+      <c r="W104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
       <c r="A105">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0.667</v>
       </c>
       <c r="D105">
-        <v>17.091</v>
+        <v>8.640000300000001</v>
       </c>
       <c r="E105" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F105" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G105" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="H105" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="I105" t="s">
         <v>408</v>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>453</v>
-      </c>
       <c r="K105" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L105" t="s">
         <v>589</v>
@@ -8240,7 +9569,7 @@
         <v>591</v>
       </c>
       <c r="O105" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="P105">
         <v>62690094</v>
@@ -8254,37 +9583,49 @@
       <c r="S105" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="106" spans="1:19">
+      <c r="T105" t="s">
+        <v>628</v>
+      </c>
+      <c r="U105" t="s">
+        <v>642</v>
+      </c>
+      <c r="V105" t="b">
+        <v>1</v>
+      </c>
+      <c r="W105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
       <c r="A106">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C106">
-        <v>0.667</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>8.640000300000001</v>
+        <v>25.895987</v>
       </c>
       <c r="E106" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="F106" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G106" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="H106" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="I106" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K106" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L106" t="s">
         <v>589</v>
@@ -8296,7 +9637,7 @@
         <v>591</v>
       </c>
       <c r="O106" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="P106">
         <v>62690094</v>
@@ -8310,93 +9651,120 @@
       <c r="S106" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="107" spans="1:19">
+      <c r="T106" t="s">
+        <v>626</v>
+      </c>
+      <c r="U106" t="s">
+        <v>640</v>
+      </c>
+      <c r="V106" t="b">
+        <v>0</v>
+      </c>
+      <c r="W106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
       <c r="A107">
+        <v>2014</v>
+      </c>
+      <c r="B107" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107">
+        <v>0.80000001</v>
+      </c>
+      <c r="D107">
+        <v>77.81126400000001</v>
+      </c>
+      <c r="E107" t="s">
+        <v>103</v>
+      </c>
+      <c r="F107" t="s">
+        <v>220</v>
+      </c>
+      <c r="G107" t="s">
+        <v>272</v>
+      </c>
+      <c r="H107" t="s">
+        <v>355</v>
+      </c>
+      <c r="I107" t="s">
+        <v>411</v>
+      </c>
+      <c r="K107" t="s">
+        <v>569</v>
+      </c>
+      <c r="L107" t="s">
+        <v>589</v>
+      </c>
+      <c r="M107" t="s">
+        <v>590</v>
+      </c>
+      <c r="N107" t="s">
+        <v>591</v>
+      </c>
+      <c r="O107" t="s">
+        <v>606</v>
+      </c>
+      <c r="P107">
+        <v>62690094</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>614</v>
+      </c>
+      <c r="R107" t="s">
+        <v>615</v>
+      </c>
+      <c r="S107" t="s">
+        <v>616</v>
+      </c>
+      <c r="T107" t="s">
+        <v>631</v>
+      </c>
+      <c r="U107" t="s">
+        <v>640</v>
+      </c>
+      <c r="V107" t="b">
+        <v>0</v>
+      </c>
+      <c r="W107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
+      <c r="A108">
         <v>2015</v>
       </c>
-      <c r="B107" t="s">
-        <v>19</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107">
-        <v>25.895987</v>
-      </c>
-      <c r="E107" t="s">
-        <v>43</v>
-      </c>
-      <c r="F107" t="s">
-        <v>216</v>
-      </c>
-      <c r="G107" t="s">
-        <v>309</v>
-      </c>
-      <c r="H107" t="s">
-        <v>393</v>
-      </c>
-      <c r="I107" t="s">
-        <v>410</v>
-      </c>
-      <c r="K107" t="s">
-        <v>568</v>
-      </c>
-      <c r="L107" t="s">
-        <v>589</v>
-      </c>
-      <c r="M107" t="s">
-        <v>590</v>
-      </c>
-      <c r="N107" t="s">
-        <v>591</v>
-      </c>
-      <c r="O107" t="s">
-        <v>601</v>
-      </c>
-      <c r="P107">
-        <v>62690094</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>614</v>
-      </c>
-      <c r="R107" t="s">
-        <v>615</v>
-      </c>
-      <c r="S107" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19">
-      <c r="A108">
-        <v>2014</v>
-      </c>
       <c r="B108" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C108">
-        <v>0.80000001</v>
+        <v>0.375</v>
       </c>
       <c r="D108">
-        <v>77.81126400000001</v>
+        <v>13.087168</v>
       </c>
       <c r="E108" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F108" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G108" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="H108" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="I108" t="s">
         <v>410</v>
       </c>
+      <c r="J108" s="2" t="s">
+        <v>455</v>
+      </c>
       <c r="K108" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L108" t="s">
         <v>589</v>
@@ -8408,7 +9776,7 @@
         <v>591</v>
       </c>
       <c r="O108" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="P108">
         <v>62690094</v>
@@ -8422,99 +9790,120 @@
       <c r="S108" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="109" spans="1:19">
+      <c r="T108" t="s">
+        <v>634</v>
+      </c>
+      <c r="U108" t="s">
+        <v>640</v>
+      </c>
+      <c r="V108" t="b">
+        <v>0</v>
+      </c>
+      <c r="W108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23">
       <c r="A109">
+        <v>2012</v>
+      </c>
+      <c r="B109" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>9.590000199999999</v>
+      </c>
+      <c r="E109" t="s">
+        <v>105</v>
+      </c>
+      <c r="F109" t="s">
+        <v>222</v>
+      </c>
+      <c r="G109" t="s">
+        <v>277</v>
+      </c>
+      <c r="H109" t="s">
+        <v>360</v>
+      </c>
+      <c r="I109" t="s">
+        <v>408</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="K109" t="s">
+        <v>571</v>
+      </c>
+      <c r="L109" t="s">
+        <v>589</v>
+      </c>
+      <c r="M109" t="s">
+        <v>590</v>
+      </c>
+      <c r="N109" t="s">
+        <v>591</v>
+      </c>
+      <c r="O109" t="s">
+        <v>596</v>
+      </c>
+      <c r="P109">
+        <v>62690094</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>614</v>
+      </c>
+      <c r="R109" t="s">
+        <v>615</v>
+      </c>
+      <c r="S109" t="s">
+        <v>616</v>
+      </c>
+      <c r="T109" t="s">
+        <v>621</v>
+      </c>
+      <c r="U109" t="s">
+        <v>642</v>
+      </c>
+      <c r="V109" t="b">
+        <v>1</v>
+      </c>
+      <c r="W109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23">
+      <c r="A110">
         <v>2015</v>
       </c>
-      <c r="B109" t="s">
-        <v>19</v>
-      </c>
-      <c r="C109">
-        <v>0.375</v>
-      </c>
-      <c r="D109">
-        <v>13.087168</v>
-      </c>
-      <c r="E109" t="s">
-        <v>100</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
-      </c>
-      <c r="G109" t="s">
-        <v>310</v>
-      </c>
-      <c r="H109" t="s">
-        <v>394</v>
-      </c>
-      <c r="I109" t="s">
-        <v>409</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="K109" t="s">
-        <v>570</v>
-      </c>
-      <c r="L109" t="s">
-        <v>589</v>
-      </c>
-      <c r="M109" t="s">
-        <v>590</v>
-      </c>
-      <c r="N109" t="s">
-        <v>591</v>
-      </c>
-      <c r="O109" t="s">
-        <v>609</v>
-      </c>
-      <c r="P109">
-        <v>62690094</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>614</v>
-      </c>
-      <c r="R109" t="s">
-        <v>615</v>
-      </c>
-      <c r="S109" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19">
-      <c r="A110">
-        <v>2012</v>
-      </c>
       <c r="B110" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>9.590000199999999</v>
+        <v>10.980762</v>
       </c>
       <c r="E110" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F110" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G110" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="H110" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="I110" t="s">
-        <v>407</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>455</v>
+        <v>409</v>
       </c>
       <c r="K110" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L110" t="s">
         <v>589</v>
@@ -8526,7 +9915,7 @@
         <v>591</v>
       </c>
       <c r="O110" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="P110">
         <v>62690094</v>
@@ -8540,37 +9929,49 @@
       <c r="S110" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="111" spans="1:19">
+      <c r="T110" t="s">
+        <v>622</v>
+      </c>
+      <c r="U110" t="s">
+        <v>642</v>
+      </c>
+      <c r="V110" t="b">
+        <v>1</v>
+      </c>
+      <c r="W110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23">
       <c r="A111">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B111" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111">
-        <v>10.980762</v>
+        <v>18.49</v>
       </c>
       <c r="E111" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G111" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="H111" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="I111" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K111" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L111" t="s">
         <v>589</v>
@@ -8596,37 +9997,52 @@
       <c r="S111" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="112" spans="1:19">
+      <c r="T111" t="s">
+        <v>622</v>
+      </c>
+      <c r="U111" t="s">
+        <v>642</v>
+      </c>
+      <c r="V111" t="b">
+        <v>0</v>
+      </c>
+      <c r="W111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23">
       <c r="A112">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B112" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>18.49</v>
+        <v>26.824389</v>
       </c>
       <c r="E112" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F112" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G112" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="H112" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="I112" t="s">
-        <v>408</v>
+        <v>409</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>457</v>
       </c>
       <c r="K112" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L112" t="s">
         <v>589</v>
@@ -8652,40 +10068,52 @@
       <c r="S112" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="113" spans="1:19">
+      <c r="T112" t="s">
+        <v>622</v>
+      </c>
+      <c r="U112" t="s">
+        <v>642</v>
+      </c>
+      <c r="V112" t="b">
+        <v>1</v>
+      </c>
+      <c r="W112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23">
       <c r="A113">
         <v>2014</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>26.824389</v>
+        <v>14.468487</v>
       </c>
       <c r="E113" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G113" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="H113" t="s">
-        <v>337</v>
+        <v>396</v>
       </c>
       <c r="I113" t="s">
         <v>408</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K113" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L113" t="s">
         <v>589</v>
@@ -8697,7 +10125,7 @@
         <v>591</v>
       </c>
       <c r="O113" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="P113">
         <v>62690094</v>
@@ -8711,40 +10139,49 @@
       <c r="S113" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="114" spans="1:19">
+      <c r="T113" t="s">
+        <v>637</v>
+      </c>
+      <c r="U113" t="s">
+        <v>642</v>
+      </c>
+      <c r="V113" t="b">
+        <v>0</v>
+      </c>
+      <c r="W113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23">
       <c r="A114">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114">
-        <v>14.468487</v>
+        <v>10.377</v>
       </c>
       <c r="E114" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F114" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G114" t="s">
-        <v>311</v>
+        <v>249</v>
       </c>
       <c r="H114" t="s">
-        <v>395</v>
+        <v>332</v>
       </c>
       <c r="I114" t="s">
         <v>407</v>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>457</v>
-      </c>
       <c r="K114" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L114" t="s">
         <v>589</v>
@@ -8756,7 +10193,7 @@
         <v>591</v>
       </c>
       <c r="O114" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="P114">
         <v>62690094</v>
@@ -8770,37 +10207,49 @@
       <c r="S114" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="115" spans="1:19">
+      <c r="T114" t="s">
+        <v>625</v>
+      </c>
+      <c r="U114" t="s">
+        <v>641</v>
+      </c>
+      <c r="V114" t="b">
+        <v>0</v>
+      </c>
+      <c r="W114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23">
       <c r="A115">
         <v>2012</v>
       </c>
       <c r="B115" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>10.377</v>
+        <v>9.343000399999999</v>
       </c>
       <c r="E115" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G115" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="H115" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="I115" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K115" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L115" t="s">
         <v>589</v>
@@ -8812,7 +10261,7 @@
         <v>591</v>
       </c>
       <c r="O115" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="P115">
         <v>62690094</v>
@@ -8826,37 +10275,52 @@
       <c r="S115" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="116" spans="1:19">
+      <c r="T115" t="s">
+        <v>619</v>
+      </c>
+      <c r="U115" t="s">
+        <v>640</v>
+      </c>
+      <c r="V115" t="b">
+        <v>0</v>
+      </c>
+      <c r="W115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23">
       <c r="A116">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B116" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0.14285715</v>
       </c>
       <c r="D116">
-        <v>9.343000399999999</v>
+        <v>3.6508355</v>
       </c>
       <c r="E116" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="F116" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G116" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="H116" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="I116" t="s">
         <v>406</v>
       </c>
+      <c r="J116" s="2" t="s">
+        <v>459</v>
+      </c>
       <c r="K116" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L116" t="s">
         <v>589</v>
@@ -8868,7 +10332,7 @@
         <v>591</v>
       </c>
       <c r="O116" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="P116">
         <v>62690094</v>
@@ -8882,40 +10346,49 @@
       <c r="S116" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="117" spans="1:19">
+      <c r="T116" t="s">
+        <v>623</v>
+      </c>
+      <c r="U116" t="s">
+        <v>639</v>
+      </c>
+      <c r="V116" t="b">
+        <v>0</v>
+      </c>
+      <c r="W116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23">
       <c r="A117">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C117">
-        <v>0.14285715</v>
+        <v>0.66666669</v>
       </c>
       <c r="D117">
-        <v>3.6508355</v>
+        <v>102.043</v>
       </c>
       <c r="E117" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G117" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H117" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="I117" t="s">
-        <v>405</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="K117" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L117" t="s">
         <v>589</v>
@@ -8927,7 +10400,7 @@
         <v>591</v>
       </c>
       <c r="O117" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="P117">
         <v>62690094</v>
@@ -8941,37 +10414,52 @@
       <c r="S117" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="118" spans="1:19">
+      <c r="T117" t="s">
+        <v>626</v>
+      </c>
+      <c r="U117" t="s">
+        <v>640</v>
+      </c>
+      <c r="V117" t="b">
+        <v>0</v>
+      </c>
+      <c r="W117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23">
       <c r="A118">
         <v>2013</v>
       </c>
       <c r="B118" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C118">
-        <v>0.66666669</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>102.043</v>
+        <v>13.5079</v>
       </c>
       <c r="E118" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="F118" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G118" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H118" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="I118" t="s">
-        <v>410</v>
+        <v>407</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>460</v>
       </c>
       <c r="K118" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L118" t="s">
         <v>589</v>
@@ -8983,7 +10471,7 @@
         <v>591</v>
       </c>
       <c r="O118" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="P118">
         <v>62690094</v>
@@ -8997,40 +10485,49 @@
       <c r="S118" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="119" spans="1:19">
+      <c r="T118" t="s">
+        <v>620</v>
+      </c>
+      <c r="U118" t="s">
+        <v>641</v>
+      </c>
+      <c r="V118" t="b">
+        <v>0</v>
+      </c>
+      <c r="W118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23">
       <c r="A119">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B119" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119">
-        <v>13.5079</v>
+        <v>9.343000399999999</v>
       </c>
       <c r="E119" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G119" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="H119" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="I119" t="s">
-        <v>406</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>459</v>
+        <v>407</v>
       </c>
       <c r="K119" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L119" t="s">
         <v>589</v>
@@ -9042,7 +10539,7 @@
         <v>591</v>
       </c>
       <c r="O119" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P119">
         <v>62690094</v>
@@ -9056,37 +10553,49 @@
       <c r="S119" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="120" spans="1:19">
+      <c r="T119" t="s">
+        <v>619</v>
+      </c>
+      <c r="U119" t="s">
+        <v>640</v>
+      </c>
+      <c r="V119" t="b">
+        <v>0</v>
+      </c>
+      <c r="W119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23">
       <c r="A120">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B120" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0.33333334</v>
       </c>
       <c r="D120">
-        <v>9.343000399999999</v>
+        <v>13.207163</v>
       </c>
       <c r="E120" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F120" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G120" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="H120" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="I120" t="s">
         <v>406</v>
       </c>
       <c r="K120" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L120" t="s">
         <v>589</v>
@@ -9098,7 +10607,7 @@
         <v>591</v>
       </c>
       <c r="O120" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="P120">
         <v>62690094</v>
@@ -9112,37 +10621,49 @@
       <c r="S120" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="121" spans="1:19">
+      <c r="T120" t="s">
+        <v>638</v>
+      </c>
+      <c r="U120" t="s">
+        <v>639</v>
+      </c>
+      <c r="V120" t="b">
+        <v>0</v>
+      </c>
+      <c r="W120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23">
       <c r="A121">
         <v>2015</v>
       </c>
       <c r="B121" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C121">
-        <v>0.33333334</v>
+        <v>0.08695652300000001</v>
       </c>
       <c r="D121">
-        <v>13.207163</v>
+        <v>0.76543659</v>
       </c>
       <c r="E121" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F121" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G121" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H121" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I121" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K121" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L121" t="s">
         <v>589</v>
@@ -9154,7 +10675,7 @@
         <v>591</v>
       </c>
       <c r="O121" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="P121">
         <v>62690094</v>
@@ -9168,37 +10689,49 @@
       <c r="S121" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="122" spans="1:19">
+      <c r="T121" t="s">
+        <v>623</v>
+      </c>
+      <c r="U121" t="s">
+        <v>639</v>
+      </c>
+      <c r="V121" t="b">
+        <v>1</v>
+      </c>
+      <c r="W121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23">
       <c r="A122">
         <v>2015</v>
       </c>
       <c r="B122" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C122">
-        <v>0.08695652300000001</v>
+        <v>0.21428572</v>
       </c>
       <c r="D122">
-        <v>0.76543659</v>
+        <v>2.5568357</v>
       </c>
       <c r="E122" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F122" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G122" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H122" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I122" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K122" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L122" t="s">
         <v>589</v>
@@ -9224,37 +10757,49 @@
       <c r="S122" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="123" spans="1:19">
+      <c r="T122" t="s">
+        <v>623</v>
+      </c>
+      <c r="U122" t="s">
+        <v>639</v>
+      </c>
+      <c r="V122" t="b">
+        <v>0</v>
+      </c>
+      <c r="W122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23">
       <c r="A123">
         <v>2015</v>
       </c>
       <c r="B123" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C123">
-        <v>0.21428572</v>
+        <v>0.5</v>
       </c>
       <c r="D123">
-        <v>2.5568357</v>
+        <v>3.421484200000001</v>
       </c>
       <c r="E123" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G123" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="H123" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="I123" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K123" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L123" t="s">
         <v>589</v>
@@ -9266,7 +10811,7 @@
         <v>591</v>
       </c>
       <c r="O123" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="P123">
         <v>62690094</v>
@@ -9280,96 +10825,123 @@
       <c r="S123" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="124" spans="1:19">
+      <c r="T123" t="s">
+        <v>620</v>
+      </c>
+      <c r="U123" t="s">
+        <v>641</v>
+      </c>
+      <c r="V123" t="b">
+        <v>0</v>
+      </c>
+      <c r="W123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23">
       <c r="A124">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B124" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C124">
+        <v>0.80000001</v>
+      </c>
+      <c r="D124">
+        <v>36.998646</v>
+      </c>
+      <c r="E124" t="s">
+        <v>62</v>
+      </c>
+      <c r="F124" t="s">
+        <v>237</v>
+      </c>
+      <c r="G124" t="s">
+        <v>320</v>
+      </c>
+      <c r="H124" t="s">
+        <v>403</v>
+      </c>
+      <c r="I124" t="s">
+        <v>408</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="K124" t="s">
+        <v>586</v>
+      </c>
+      <c r="L124" t="s">
+        <v>589</v>
+      </c>
+      <c r="M124" t="s">
+        <v>590</v>
+      </c>
+      <c r="N124" t="s">
+        <v>591</v>
+      </c>
+      <c r="O124" t="s">
+        <v>603</v>
+      </c>
+      <c r="P124">
+        <v>62690094</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>614</v>
+      </c>
+      <c r="R124" t="s">
+        <v>615</v>
+      </c>
+      <c r="S124" t="s">
+        <v>616</v>
+      </c>
+      <c r="T124" t="s">
+        <v>628</v>
+      </c>
+      <c r="U124" t="s">
+        <v>642</v>
+      </c>
+      <c r="V124" t="b">
+        <v>0</v>
+      </c>
+      <c r="W124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23">
+      <c r="A125">
+        <v>2011</v>
+      </c>
+      <c r="B125" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125">
         <v>0.5</v>
       </c>
-      <c r="D124">
-        <v>3.421484200000001</v>
-      </c>
-      <c r="E124" t="s">
-        <v>86</v>
-      </c>
-      <c r="F124" t="s">
-        <v>233</v>
-      </c>
-      <c r="G124" t="s">
-        <v>300</v>
-      </c>
-      <c r="H124" t="s">
-        <v>384</v>
-      </c>
-      <c r="I124" t="s">
-        <v>406</v>
-      </c>
-      <c r="K124" t="s">
-        <v>585</v>
-      </c>
-      <c r="L124" t="s">
-        <v>589</v>
-      </c>
-      <c r="M124" t="s">
-        <v>590</v>
-      </c>
-      <c r="N124" t="s">
-        <v>591</v>
-      </c>
-      <c r="O124" t="s">
-        <v>595</v>
-      </c>
-      <c r="P124">
-        <v>62690094</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>614</v>
-      </c>
-      <c r="R124" t="s">
-        <v>615</v>
-      </c>
-      <c r="S124" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19">
-      <c r="A125">
-        <v>2014</v>
-      </c>
-      <c r="B125" t="s">
-        <v>19</v>
-      </c>
-      <c r="C125">
-        <v>0.80000001</v>
-      </c>
       <c r="D125">
-        <v>36.998646</v>
+        <v>12.177</v>
       </c>
       <c r="E125" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="F125" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G125" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H125" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I125" t="s">
         <v>407</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K125" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L125" t="s">
         <v>589</v>
@@ -9381,7 +10953,7 @@
         <v>591</v>
       </c>
       <c r="O125" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="P125">
         <v>62690094</v>
@@ -9395,40 +10967,52 @@
       <c r="S125" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="126" spans="1:19">
+      <c r="T125" t="s">
+        <v>625</v>
+      </c>
+      <c r="U125" t="s">
+        <v>641</v>
+      </c>
+      <c r="V125" t="b">
+        <v>0</v>
+      </c>
+      <c r="W125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23">
       <c r="A126">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B126" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C126">
-        <v>0.5</v>
+        <v>0.33333334</v>
       </c>
       <c r="D126">
-        <v>12.177</v>
+        <v>4.2691031</v>
       </c>
       <c r="E126" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="F126" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G126" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H126" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I126" t="s">
         <v>406</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K126" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L126" t="s">
         <v>589</v>
@@ -9440,7 +11024,7 @@
         <v>591</v>
       </c>
       <c r="O126" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="P126">
         <v>62690094</v>
@@ -9454,64 +11038,17 @@
       <c r="S126" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="127" spans="1:19">
-      <c r="A127">
-        <v>2014</v>
-      </c>
-      <c r="B127" t="s">
-        <v>19</v>
-      </c>
-      <c r="C127">
-        <v>0.33333334</v>
-      </c>
-      <c r="D127">
-        <v>4.2691031</v>
-      </c>
-      <c r="E127" t="s">
-        <v>74</v>
-      </c>
-      <c r="F127" t="s">
-        <v>236</v>
-      </c>
-      <c r="G127" t="s">
-        <v>320</v>
-      </c>
-      <c r="H127" t="s">
-        <v>404</v>
-      </c>
-      <c r="I127" t="s">
-        <v>405</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="K127" t="s">
-        <v>588</v>
-      </c>
-      <c r="L127" t="s">
-        <v>589</v>
-      </c>
-      <c r="M127" t="s">
-        <v>590</v>
-      </c>
-      <c r="N127" t="s">
-        <v>591</v>
-      </c>
-      <c r="O127" t="s">
-        <v>592</v>
-      </c>
-      <c r="P127">
-        <v>62690094</v>
-      </c>
-      <c r="Q127" t="s">
-        <v>614</v>
-      </c>
-      <c r="R127" t="s">
-        <v>615</v>
-      </c>
-      <c r="S127" t="s">
-        <v>616</v>
+      <c r="T126" t="s">
+        <v>617</v>
+      </c>
+      <c r="U126" t="s">
+        <v>639</v>
+      </c>
+      <c r="V126" t="b">
+        <v>0</v>
+      </c>
+      <c r="W126" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9553,20 +11090,20 @@
     <hyperlink ref="J80" r:id="rId35"/>
     <hyperlink ref="J81" r:id="rId36"/>
     <hyperlink ref="J82" r:id="rId37"/>
-    <hyperlink ref="J86" r:id="rId38"/>
-    <hyperlink ref="J87" r:id="rId39"/>
-    <hyperlink ref="J94" r:id="rId40"/>
-    <hyperlink ref="J97" r:id="rId41"/>
-    <hyperlink ref="J105" r:id="rId42"/>
-    <hyperlink ref="J109" r:id="rId43"/>
-    <hyperlink ref="J110" r:id="rId44"/>
-    <hyperlink ref="J113" r:id="rId45"/>
-    <hyperlink ref="J114" r:id="rId46"/>
-    <hyperlink ref="J117" r:id="rId47"/>
-    <hyperlink ref="J119" r:id="rId48"/>
-    <hyperlink ref="J125" r:id="rId49"/>
-    <hyperlink ref="J126" r:id="rId50"/>
-    <hyperlink ref="J127" r:id="rId51"/>
+    <hyperlink ref="J85" r:id="rId38"/>
+    <hyperlink ref="J86" r:id="rId39"/>
+    <hyperlink ref="J93" r:id="rId40"/>
+    <hyperlink ref="J96" r:id="rId41"/>
+    <hyperlink ref="J104" r:id="rId42"/>
+    <hyperlink ref="J108" r:id="rId43"/>
+    <hyperlink ref="J109" r:id="rId44"/>
+    <hyperlink ref="J112" r:id="rId45"/>
+    <hyperlink ref="J113" r:id="rId46"/>
+    <hyperlink ref="J116" r:id="rId47"/>
+    <hyperlink ref="J118" r:id="rId48"/>
+    <hyperlink ref="J124" r:id="rId49"/>
+    <hyperlink ref="J125" r:id="rId50"/>
+    <hyperlink ref="J126" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xls/UHK-Fakulta informatiky a managementu_All.xlsx
+++ b/xls/UHK-Fakulta informatiky a managementu_All.xlsx
@@ -79,10 +79,10 @@
     <t>Record_FOS_category</t>
   </si>
   <si>
-    <t>IsLocalJournal</t>
-  </si>
-  <si>
-    <t>IsPredatoryJournal</t>
+    <t>Místní časopis</t>
+  </si>
+  <si>
+    <t>Predátorský časopis</t>
   </si>
   <si>
     <t>Jimp</t>
